--- a/static/Puntos.xlsx
+++ b/static/Puntos.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barranquilla y Soledad</t>
+          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0875810000000000360230</t>
+          <t>6800110000000002800616</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.9062691999</v>
+        <v>7.14499230679</v>
       </c>
       <c r="F2" t="n">
-        <v>-74.8091111303</v>
+        <v>-73.124413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barranquilla y Soledad</t>
+          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0875810000000000040401</t>
+          <t>6800110000000002850125</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.920313452</v>
+        <v>7.15298783395</v>
       </c>
       <c r="F3" t="n">
-        <v>-74.7705287006</v>
+        <v>-73.12597473069999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barranquilla y Soledad</t>
+          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0800110000000036050202</t>
+          <t>6800110000000002850513</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10.9351791838</v>
+        <v>7.14997382542</v>
       </c>
       <c r="F4" t="n">
-        <v>-74.7871044079</v>
+        <v>-73.1239001484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Barranquilla y Soledad</t>
+          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0800110000000017030104</t>
+          <t>6800110000000009440321</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,16 +571,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.9714742642</v>
+        <v>7.09960313404</v>
       </c>
       <c r="F5" t="n">
-        <v>-74.7970955792</v>
+        <v>-73.10988221700001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Barranquilla y Soledad</t>
+          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0800110000000002020116</t>
+          <t>6827610000000000090315</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,16 +599,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.022547375</v>
+        <v>7.06004692805</v>
       </c>
       <c r="F6" t="n">
-        <v>-74.8104431375</v>
+        <v>-73.0866898312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Barranquilla y Soledad</t>
+          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0800110000000002020230</t>
+          <t>6827610000000000030630</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.0232752763</v>
+        <v>7.07496927963</v>
       </c>
       <c r="F7" t="n">
-        <v>-74.8116186096</v>
+        <v>-73.0833930158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Barranquilla y Soledad</t>
+          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0800110000000002060416</t>
+          <t>6800110000000012380513</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.0167850126</v>
+        <v>7.11615102554</v>
       </c>
       <c r="F8" t="n">
-        <v>-74.8059755771</v>
+        <v>-73.1060115377</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Barranquilla y Soledad</t>
+          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0800110000000011040101</t>
+          <t>6827610000000000110231</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,16 +683,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10.9878831387</v>
+        <v>7.08236877722</v>
       </c>
       <c r="F9" t="n">
-        <v>-74.81927028219999</v>
+        <v>-73.109770799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Barranquilla y Soledad</t>
+          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0800110000000001020145</t>
+          <t>6800110000000010620105</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>11.023962895</v>
+        <v>7.09316301106</v>
       </c>
       <c r="F10" t="n">
-        <v>-74.8170227983</v>
+        <v>-73.1110351889</v>
       </c>
     </row>
   </sheetData>

--- a/static/Puntos.xlsx
+++ b/static/Puntos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>ciudad</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -468,253 +468,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
+          <t>Bogota y Soacha</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1 - Bajo</t>
+          <t>1 - bajo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6800110000000002800616</t>
+          <t>1100110000000024220503</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>bajo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.14499230679</v>
+        <v>4.586310417</v>
       </c>
       <c r="F2" t="n">
-        <v>-73.124413</v>
+        <v>-74.17413266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
+          <t>Bogota y Soacha</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2 - Bajo</t>
+          <t>2 - bajo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6800110000000002850125</t>
+          <t>1100110000000045530118</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>bajo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7.15298783395</v>
+        <v>4.649256122</v>
       </c>
       <c r="F3" t="n">
-        <v>-73.12597473069999</v>
+        <v>-74.15510947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
+          <t>Bogota y Soacha</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3 - Bajo</t>
+          <t>3 - medio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6800110000000002850513</t>
+          <t>1100110000000031060106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>medio</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7.14997382542</v>
+        <v>4.595540474</v>
       </c>
       <c r="F4" t="n">
-        <v>-73.1239001484</v>
+        <v>-74.07392878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
+          <t>Bogota y Soacha</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4 - Medio</t>
+          <t>4 - medio</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6800110000000009440321</t>
+          <t>1100110000000045320603</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>medio</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.09960313404</v>
+        <v>4.617297967</v>
       </c>
       <c r="F5" t="n">
-        <v>-73.10988221700001</v>
+        <v>-74.16535709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
+          <t>Bogota y Soacha</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5 - Medio</t>
+          <t>5 - alto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6827610000000000090315</t>
+          <t>1100110000000085020202</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>alto</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.06004692805</v>
+        <v>4.742698904</v>
       </c>
       <c r="F6" t="n">
-        <v>-73.0866898312</v>
+        <v>-74.03220657</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
+          <t>Bogota y Soacha</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6 - Medio</t>
+          <t>6 - alto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6827610000000000030630</t>
+          <t>1100110000000043040721</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>alto</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7.07496927963</v>
+        <v>4.621482897</v>
       </c>
       <c r="F7" t="n">
-        <v>-73.0833930158</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7 - Alto</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6800110000000012380513</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>7.11615102554</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-73.1060115377</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8 - Alto</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6827610000000000110231</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.08236877722</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-73.109770799</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Bucaramanga - Floridablanca - Piedecuesta</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>9 - Alto</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6800110000000010620105</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>7.09316301106</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-73.1110351889</v>
+        <v>-74.12404834</v>
       </c>
     </row>
   </sheetData>

--- a/static/Puntos.xlsx
+++ b/static/Puntos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bogota y Soacha</t>
+          <t>Medellin y Valle de Aburra</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1100110000000024220503</t>
+          <t>0500110000000008060237</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.586310417</v>
+        <v>6.25127022</v>
       </c>
       <c r="F2" t="n">
-        <v>-74.17413266</v>
+        <v>-75.55128274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bogota y Soacha</t>
+          <t>Medellin y Valle de Aburra</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1100110000000045530118</t>
+          <t>0500110000000016180416</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,122 +515,290 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.649256122</v>
+        <v>6.231965018</v>
       </c>
       <c r="F3" t="n">
-        <v>-74.15510947</v>
+        <v>-75.61539272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bogota y Soacha</t>
+          <t>Medellin y Valle de Aburra</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3 - medio</t>
+          <t>3 - bajo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1100110000000031060106</t>
+          <t>0500110000000014120531</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>medio</t>
+          <t>bajo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.595540474</v>
+        <v>6.190498902</v>
       </c>
       <c r="F4" t="n">
-        <v>-74.07392878</v>
+        <v>-75.55559495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bogota y Soacha</t>
+          <t>Medellin y Valle de Aburra</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4 - medio</t>
+          <t>4 - bajo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1100110000000045320603</t>
+          <t>0500110000000006020126</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>medio</t>
+          <t>bajo</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.617297967</v>
+        <v>6.303973949</v>
       </c>
       <c r="F5" t="n">
-        <v>-74.16535709</v>
+        <v>-75.58027035000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bogota y Soacha</t>
+          <t>Medellin y Valle de Aburra</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5 - alto</t>
+          <t>5 - medio</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1100110000000085020202</t>
+          <t>0526610000000000190116</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>alto</t>
+          <t>medio</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.742698904</v>
+        <v>6.161835749</v>
       </c>
       <c r="F6" t="n">
-        <v>-74.03220657</v>
+        <v>-75.58699673</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bogota y Soacha</t>
+          <t>Medellin y Valle de Aburra</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6 - alto</t>
+          <t>6 - medio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1100110000000043040721</t>
+          <t>0500110000000003030304</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>medio</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6.272634242</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-75.55072706</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Medellin y Valle de Aburra</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7 - medio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0508810000000021020202</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>medio</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6.315951453</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-75.56598468</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Medellin y Valle de Aburra</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8 - medio</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0500110000000004080103</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>medio</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6.268560923</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-75.55911500000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Medellin y Valle de Aburra</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9 - alto</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0500110000000015100109</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>alto</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>4.621482897</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-74.12404834</v>
+      <c r="E10" t="n">
+        <v>6.201835874</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-75.58723546</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Medellin y Valle de Aburra</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10 - alto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0500110000000012120123</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>alto</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6.244105788</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-75.61371516</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Medellin y Valle de Aburra</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11 - alto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0500110000000011100511</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>alto</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6.238001243</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-75.59913259</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Medellin y Valle de Aburra</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12 - alto</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0500110000000014110118</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>alto</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6.197041884</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-75.5590251</v>
       </c>
     </row>
   </sheetData>

--- a/static/Puntos.xlsx
+++ b/static/Puntos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0500110000000008060237</t>
+          <t>0500110000000003040504</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.25127022</v>
+        <v>6.274761231</v>
       </c>
       <c r="F2" t="n">
-        <v>-75.55128274</v>
+        <v>-75.54870669</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0500110000000016180416</t>
+          <t>0500110000000004050316</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.231965018</v>
+        <v>6.27603374</v>
       </c>
       <c r="F3" t="n">
-        <v>-75.61539272</v>
+        <v>-75.56571624999999</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0500110000000014120531</t>
+          <t>0500110000000004130311</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6.190498902</v>
+        <v>6.278352797</v>
       </c>
       <c r="F4" t="n">
-        <v>-75.55559495</v>
+        <v>-75.56195611</v>
       </c>
     </row>
     <row r="5">
@@ -557,24 +557,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4 - bajo</t>
+          <t>4 - medio</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0500110000000006020126</t>
+          <t>0500110000000005070203</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>bajo</t>
+          <t>medio</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.303973949</v>
+        <v>6.295708842</v>
       </c>
       <c r="F5" t="n">
-        <v>-75.58027035000001</v>
+        <v>-75.56506001</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0526610000000000190116</t>
+          <t>0500110000000005040604</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6.161835749</v>
+        <v>6.308309557</v>
       </c>
       <c r="F6" t="n">
-        <v>-75.58699673</v>
+        <v>-75.57037676</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0500110000000003030304</t>
+          <t>0500110000000004090506</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6.272634242</v>
+        <v>6.266142732</v>
       </c>
       <c r="F7" t="n">
-        <v>-75.55072706</v>
+        <v>-75.55873699999999</v>
       </c>
     </row>
     <row r="8">
@@ -641,24 +641,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7 - medio</t>
+          <t>7 - alto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0508810000000021020202</t>
+          <t>0526610000000000180119</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>medio</t>
+          <t>alto</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.315951453</v>
+        <v>6.15971964</v>
       </c>
       <c r="F8" t="n">
-        <v>-75.56598468</v>
+        <v>-75.59551424999999</v>
       </c>
     </row>
     <row r="9">
@@ -669,24 +669,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8 - medio</t>
+          <t>8 - alto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0500110000000004080103</t>
+          <t>0526610000000000050305</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>medio</t>
+          <t>alto</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6.268560923</v>
+        <v>6.16926934</v>
       </c>
       <c r="F9" t="n">
-        <v>-75.55911500000001</v>
+        <v>-75.59149342000001</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0500110000000015100109</t>
+          <t>0563110000000000010250</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,94 +711,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6.201835874</v>
+        <v>6.142552746</v>
       </c>
       <c r="F10" t="n">
-        <v>-75.58723546</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Medellin y Valle de Aburra</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10 - alto</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0500110000000012120123</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>alto</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>6.244105788</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-75.61371516</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Medellin y Valle de Aburra</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11 - alto</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0500110000000011100511</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>alto</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>6.238001243</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-75.59913259</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Medellin y Valle de Aburra</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12 - alto</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0500110000000014110118</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>alto</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>6.197041884</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-75.5590251</v>
+        <v>-75.61640482999999</v>
       </c>
     </row>
   </sheetData>
